--- a/StructureDefinition-CARIN-BB-Practitioner.xlsx
+++ b/StructureDefinition-CARIN-BB-Practitioner.xlsx
@@ -2216,7 +2216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>86</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>43</v>
